--- a/Calibration.xlsx
+++ b/Calibration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28560" windowHeight="14385"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="21795" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>Input Voltage</t>
   </si>
@@ -32,15 +32,28 @@
   <si>
     <t>Output Current</t>
   </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>0 degrees</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="171" formatCode="_ * #,##0.000000_ ;_ * \-#,##0.000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.000000_ ;_ * \-#,##0.000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="_ * #,##0.00000_ ;_ * \-#,##0.00000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -100,12 +113,14 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -402,18 +417,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1">
+    <row r="1" spans="1:29" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -426,8 +441,11 @@
       <c r="S1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="Y1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" s="1">
         <v>0.6875</v>
       </c>
@@ -442,8 +460,12 @@
         <f xml:space="preserve"> 0.7142857 * 0.25</f>
         <v>0.17857142500000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="Y2" s="1">
+        <f>AD22</f>
+        <v>-1.4012573201682406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -468,8 +490,14 @@
       <c r="U3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="Y3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4">
         <v>1</v>
       </c>
@@ -546,17 +574,36 @@
         <f t="shared" ref="W4:W6" si="7">V4/S$2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <f>2^Y4</f>
+        <v>2</v>
+      </c>
+      <c r="AA4">
+        <f>ROUND(Y$2*Z4,0)</f>
+        <v>-3</v>
+      </c>
+      <c r="AB4" s="1">
+        <f t="shared" ref="AB4:AB17" si="8">AA4/Z4</f>
+        <v>-1.5</v>
+      </c>
+      <c r="AC4" s="2">
+        <f t="shared" ref="AC4:AC6" si="9">AB4/Y$2</f>
+        <v>1.0704672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B18" si="8">2^A5</f>
+        <f t="shared" ref="B5:B18" si="10">2^A5</f>
         <v>4</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C18" si="9">ROUND(A$2*B5,0)</f>
+        <f t="shared" ref="C5:C18" si="11">ROUND(A$2*B5,0)</f>
         <v>3</v>
       </c>
       <c r="D5" s="1">
@@ -571,11 +618,11 @@
         <v>2</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H18" si="10">2^G5</f>
+        <f t="shared" ref="H5:H18" si="12">2^G5</f>
         <v>4</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I18" si="11">ROUND(G$2*H5,0)</f>
+        <f t="shared" ref="I5:I18" si="13">ROUND(G$2*H5,0)</f>
         <v>2</v>
       </c>
       <c r="J5" s="1">
@@ -590,11 +637,11 @@
         <v>2</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:N18" si="12">2^M5</f>
+        <f t="shared" ref="N5:N18" si="14">2^M5</f>
         <v>4</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:O18" si="13">ROUND(M$2*N5,0)</f>
+        <f t="shared" ref="O5:O18" si="15">ROUND(M$2*N5,0)</f>
         <v>1</v>
       </c>
       <c r="P5" s="1">
@@ -609,11 +656,11 @@
         <v>2</v>
       </c>
       <c r="T5">
-        <f t="shared" ref="T5:T18" si="14">2^S5</f>
+        <f t="shared" ref="T5:T18" si="16">2^S5</f>
         <v>4</v>
       </c>
       <c r="U5">
-        <f t="shared" ref="U5:U18" si="15">ROUND(S$2*T5,0)</f>
+        <f t="shared" ref="U5:U18" si="17">ROUND(S$2*T5,0)</f>
         <v>1</v>
       </c>
       <c r="V5" s="1">
@@ -624,17 +671,36 @@
         <f t="shared" si="7"/>
         <v>1.4000000280000005</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="Y5">
+        <v>2</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" ref="Z5:Z18" si="18">2^Y5</f>
+        <v>4</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" ref="AA5:AA18" si="19">ROUND(Y$2*Z5,0)</f>
+        <v>-6</v>
+      </c>
+      <c r="AB5" s="1">
+        <f t="shared" si="8"/>
+        <v>-1.5</v>
+      </c>
+      <c r="AC5" s="2">
+        <f t="shared" si="9"/>
+        <v>1.0704672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="C6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="D6" s="1">
@@ -649,11 +715,11 @@
         <v>3</v>
       </c>
       <c r="H6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="I6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="J6" s="1">
@@ -668,11 +734,11 @@
         <v>3</v>
       </c>
       <c r="N6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="O6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="P6" s="1">
@@ -687,11 +753,11 @@
         <v>3</v>
       </c>
       <c r="T6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="U6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="V6" s="1">
@@ -702,17 +768,36 @@
         <f t="shared" si="7"/>
         <v>0.70000001400000023</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="Y6">
+        <v>3</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="19"/>
+        <v>-11</v>
+      </c>
+      <c r="AB6" s="1">
+        <f t="shared" si="8"/>
+        <v>-1.375</v>
+      </c>
+      <c r="AC6" s="2">
+        <f t="shared" si="9"/>
+        <v>0.98126159999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="D7" s="1">
@@ -727,11 +812,11 @@
         <v>4</v>
       </c>
       <c r="H7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I7:I9" si="16">ROUND(G$2*H7,0)</f>
+        <f t="shared" ref="I7:I9" si="20">ROUND(G$2*H7,0)</f>
         <v>9</v>
       </c>
       <c r="J7" s="1">
@@ -746,11 +831,11 @@
         <v>4</v>
       </c>
       <c r="N7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="O7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="P7" s="1">
@@ -765,11 +850,11 @@
         <v>4</v>
       </c>
       <c r="T7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
       <c r="U7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="V7" s="1">
@@ -780,17 +865,36 @@
         <f>V7/S$2</f>
         <v>1.0500000210000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="Y7" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="18"/>
+        <v>16</v>
+      </c>
+      <c r="AA7" s="4">
+        <f t="shared" si="19"/>
+        <v>-22</v>
+      </c>
+      <c r="AB7" s="1">
+        <f t="shared" si="8"/>
+        <v>-1.375</v>
+      </c>
+      <c r="AC7" s="2">
+        <f>AB7/Y$2</f>
+        <v>0.98126159999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="C8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="D8" s="1">
@@ -798,18 +902,18 @@
         <v>0.6875</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" ref="E8:E18" si="17">D8/A$2</f>
+        <f t="shared" ref="E8:E18" si="21">D8/A$2</f>
         <v>1</v>
       </c>
       <c r="G8" s="4">
         <v>5</v>
       </c>
       <c r="H8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>17</v>
       </c>
       <c r="J8" s="1">
@@ -817,18 +921,18 @@
         <v>0.53125</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" ref="K8:K18" si="18">J8/G$2</f>
+        <f t="shared" ref="K8:K18" si="22">J8/G$2</f>
         <v>1</v>
       </c>
       <c r="M8">
         <v>5</v>
       </c>
       <c r="N8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>32</v>
       </c>
       <c r="O8">
-        <f t="shared" ref="O8" si="19">ROUND(M$2*N8,0)</f>
+        <f t="shared" ref="O8" si="23">ROUND(M$2*N8,0)</f>
         <v>6</v>
       </c>
       <c r="P8" s="1">
@@ -836,18 +940,18 @@
         <v>0.1875</v>
       </c>
       <c r="Q8" s="2">
-        <f t="shared" ref="Q8:Q18" si="20">P8/M$2</f>
+        <f t="shared" ref="Q8:Q18" si="24">P8/M$2</f>
         <v>1.0500000210000004</v>
       </c>
       <c r="S8">
         <v>5</v>
       </c>
       <c r="T8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="U8">
-        <f t="shared" ref="U8" si="21">ROUND(S$2*T8,0)</f>
+        <f t="shared" ref="U8" si="25">ROUND(S$2*T8,0)</f>
         <v>6</v>
       </c>
       <c r="V8" s="1">
@@ -855,20 +959,39 @@
         <v>0.1875</v>
       </c>
       <c r="W8" s="2">
-        <f t="shared" ref="W8:W18" si="22">V8/S$2</f>
+        <f t="shared" ref="W8:W18" si="26">V8/S$2</f>
         <v>1.0500000210000004</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="Y8">
+        <v>5</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="18"/>
+        <v>32</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="19"/>
+        <v>-45</v>
+      </c>
+      <c r="AB8" s="1">
+        <f t="shared" si="8"/>
+        <v>-1.40625</v>
+      </c>
+      <c r="AC8" s="2">
+        <f t="shared" ref="AC8:AC18" si="27">AB8/Y$2</f>
+        <v>1.003563</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>64</v>
       </c>
       <c r="C9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>44</v>
       </c>
       <c r="D9" s="1">
@@ -876,18 +999,18 @@
         <v>0.6875</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G9">
         <v>6</v>
       </c>
       <c r="H9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>64</v>
       </c>
       <c r="I9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>34</v>
       </c>
       <c r="J9" s="1">
@@ -895,18 +1018,18 @@
         <v>0.53125</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="M9">
         <v>6</v>
       </c>
       <c r="N9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>64</v>
       </c>
       <c r="O9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="P9" s="1">
@@ -914,18 +1037,18 @@
         <v>0.171875</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.96250001925000039</v>
       </c>
       <c r="S9">
         <v>6</v>
       </c>
       <c r="T9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>64</v>
       </c>
       <c r="U9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="V9" s="1">
@@ -933,20 +1056,39 @@
         <v>0.171875</v>
       </c>
       <c r="W9" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.96250001925000039</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="Y9">
+        <v>6</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="18"/>
+        <v>64</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="19"/>
+        <v>-90</v>
+      </c>
+      <c r="AB9" s="1">
+        <f t="shared" si="8"/>
+        <v>-1.40625</v>
+      </c>
+      <c r="AC9" s="2">
+        <f t="shared" si="27"/>
+        <v>1.003563</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>128</v>
       </c>
       <c r="C10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>88</v>
       </c>
       <c r="D10" s="1">
@@ -954,18 +1096,18 @@
         <v>0.6875</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G10">
         <v>7</v>
       </c>
       <c r="H10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>128</v>
       </c>
       <c r="I10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>68</v>
       </c>
       <c r="J10" s="1">
@@ -973,18 +1115,18 @@
         <v>0.53125</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="M10">
         <v>7</v>
       </c>
       <c r="N10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>128</v>
       </c>
       <c r="O10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
       <c r="P10" s="1">
@@ -992,18 +1134,18 @@
         <v>0.1796875</v>
       </c>
       <c r="Q10" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1.0062500201250004</v>
       </c>
       <c r="S10">
         <v>7</v>
       </c>
       <c r="T10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>128</v>
       </c>
       <c r="U10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>23</v>
       </c>
       <c r="V10" s="1">
@@ -1011,20 +1153,39 @@
         <v>0.1796875</v>
       </c>
       <c r="W10" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.0062500201250004</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="Y10">
+        <v>7</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="18"/>
+        <v>128</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="19"/>
+        <v>-179</v>
+      </c>
+      <c r="AB10" s="1">
+        <f t="shared" si="8"/>
+        <v>-1.3984375</v>
+      </c>
+      <c r="AC10" s="2">
+        <f t="shared" si="27"/>
+        <v>0.99798765</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>256</v>
       </c>
       <c r="C11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>176</v>
       </c>
       <c r="D11" s="1">
@@ -1032,18 +1193,18 @@
         <v>0.6875</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G11">
         <v>8</v>
       </c>
       <c r="H11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>256</v>
       </c>
       <c r="I11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>136</v>
       </c>
       <c r="J11" s="1">
@@ -1051,18 +1212,18 @@
         <v>0.53125</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="M11">
         <v>8</v>
       </c>
       <c r="N11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>256</v>
       </c>
       <c r="O11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>46</v>
       </c>
       <c r="P11" s="1">
@@ -1070,18 +1231,18 @@
         <v>0.1796875</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1.0062500201250004</v>
       </c>
       <c r="S11">
         <v>8</v>
       </c>
       <c r="T11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>256</v>
       </c>
       <c r="U11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>46</v>
       </c>
       <c r="V11" s="1">
@@ -1089,39 +1250,58 @@
         <v>0.1796875</v>
       </c>
       <c r="W11" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.0062500201250004</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="Y11">
+        <v>8</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="18"/>
+        <v>256</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="19"/>
+        <v>-359</v>
+      </c>
+      <c r="AB11" s="1">
+        <f t="shared" si="8"/>
+        <v>-1.40234375</v>
+      </c>
+      <c r="AC11" s="2">
+        <f t="shared" si="27"/>
+        <v>1.000775325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>512</v>
       </c>
       <c r="C12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>352</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" ref="D12:D17" si="23">C12/B12</f>
+        <f t="shared" ref="D12:D17" si="28">C12/B12</f>
         <v>0.6875</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G12">
         <v>9</v>
       </c>
       <c r="H12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>512</v>
       </c>
       <c r="I12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>272</v>
       </c>
       <c r="J12" s="1">
@@ -1129,18 +1309,18 @@
         <v>0.53125</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="M12">
         <v>9</v>
       </c>
       <c r="N12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>512</v>
       </c>
       <c r="O12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>91</v>
       </c>
       <c r="P12" s="1">
@@ -1148,18 +1328,18 @@
         <v>0.177734375</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.99531251990625036</v>
       </c>
       <c r="S12">
         <v>9</v>
       </c>
       <c r="T12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>512</v>
       </c>
       <c r="U12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>91</v>
       </c>
       <c r="V12" s="1">
@@ -1167,39 +1347,58 @@
         <v>0.177734375</v>
       </c>
       <c r="W12" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.99531251990625036</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="Y12">
+        <v>9</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="18"/>
+        <v>512</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="19"/>
+        <v>-717</v>
+      </c>
+      <c r="AB12" s="1">
+        <f t="shared" si="8"/>
+        <v>-1.400390625</v>
+      </c>
+      <c r="AC12" s="2">
+        <f t="shared" si="27"/>
+        <v>0.9993814875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1024</v>
       </c>
       <c r="C13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>704</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.6875</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G13">
         <v>10</v>
       </c>
       <c r="H13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1024</v>
       </c>
       <c r="I13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>544</v>
       </c>
       <c r="J13" s="1">
@@ -1207,18 +1406,18 @@
         <v>0.53125</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="M13">
         <v>10</v>
       </c>
       <c r="N13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1024</v>
       </c>
       <c r="O13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>183</v>
       </c>
       <c r="P13" s="1">
@@ -1226,18 +1425,18 @@
         <v>0.1787109375</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1.0007812700156253</v>
       </c>
       <c r="S13">
         <v>10</v>
       </c>
       <c r="T13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1024</v>
       </c>
       <c r="U13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>183</v>
       </c>
       <c r="V13" s="1">
@@ -1245,39 +1444,58 @@
         <v>0.1787109375</v>
       </c>
       <c r="W13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.0007812700156253</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="Y13">
+        <v>10</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="18"/>
+        <v>1024</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="19"/>
+        <v>-1435</v>
+      </c>
+      <c r="AB13" s="1">
+        <f t="shared" si="8"/>
+        <v>-1.4013671875</v>
+      </c>
+      <c r="AC13" s="2">
+        <f t="shared" si="27"/>
+        <v>1.0000784062500001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2048</v>
       </c>
       <c r="C14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1408</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.6875</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G14">
         <v>11</v>
       </c>
       <c r="H14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2048</v>
       </c>
       <c r="I14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1088</v>
       </c>
       <c r="J14" s="1">
@@ -1285,18 +1503,18 @@
         <v>0.53125</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="M14">
         <v>11</v>
       </c>
       <c r="N14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2048</v>
       </c>
       <c r="O14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>366</v>
       </c>
       <c r="P14" s="1">
@@ -1304,18 +1522,18 @@
         <v>0.1787109375</v>
       </c>
       <c r="Q14" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1.0007812700156253</v>
       </c>
       <c r="S14">
         <v>11</v>
       </c>
       <c r="T14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2048</v>
       </c>
       <c r="U14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>366</v>
       </c>
       <c r="V14" s="1">
@@ -1323,39 +1541,58 @@
         <v>0.1787109375</v>
       </c>
       <c r="W14" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.0007812700156253</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="Y14">
+        <v>11</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="18"/>
+        <v>2048</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="19"/>
+        <v>-2870</v>
+      </c>
+      <c r="AB14" s="1">
+        <f t="shared" si="8"/>
+        <v>-1.4013671875</v>
+      </c>
+      <c r="AC14" s="2">
+        <f t="shared" si="27"/>
+        <v>1.0000784062500001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4096</v>
       </c>
       <c r="C15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2816</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.6875</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G15">
         <v>12</v>
       </c>
       <c r="H15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4096</v>
       </c>
       <c r="I15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2176</v>
       </c>
       <c r="J15" s="1">
@@ -1363,18 +1600,18 @@
         <v>0.53125</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="M15">
         <v>12</v>
       </c>
       <c r="N15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4096</v>
       </c>
       <c r="O15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>731</v>
       </c>
       <c r="P15" s="1">
@@ -1382,18 +1619,18 @@
         <v>0.178466796875</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.99941408248828156</v>
       </c>
       <c r="S15">
         <v>12</v>
       </c>
       <c r="T15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4096</v>
       </c>
       <c r="U15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>731</v>
       </c>
       <c r="V15" s="1">
@@ -1401,39 +1638,58 @@
         <v>0.178466796875</v>
       </c>
       <c r="W15" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.99941408248828156</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="Y15">
+        <v>12</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="18"/>
+        <v>4096</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="19"/>
+        <v>-5740</v>
+      </c>
+      <c r="AB15" s="1">
+        <f t="shared" si="8"/>
+        <v>-1.4013671875</v>
+      </c>
+      <c r="AC15" s="2">
+        <f t="shared" si="27"/>
+        <v>1.0000784062500001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8192</v>
       </c>
       <c r="C16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5632</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.6875</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G16">
         <v>13</v>
       </c>
       <c r="H16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8192</v>
       </c>
       <c r="I16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4352</v>
       </c>
       <c r="J16" s="1">
@@ -1441,18 +1697,18 @@
         <v>0.53125</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="M16">
         <v>13</v>
       </c>
       <c r="N16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>8192</v>
       </c>
       <c r="O16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1463</v>
       </c>
       <c r="P16" s="1">
@@ -1460,18 +1716,18 @@
         <v>0.1785888671875</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1.0000976762519536</v>
       </c>
       <c r="S16">
         <v>13</v>
       </c>
       <c r="T16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8192</v>
       </c>
       <c r="U16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1463</v>
       </c>
       <c r="V16" s="1">
@@ -1479,39 +1735,58 @@
         <v>0.1785888671875</v>
       </c>
       <c r="W16" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.0000976762519536</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="Y16">
+        <v>13</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="18"/>
+        <v>8192</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="19"/>
+        <v>-11479</v>
+      </c>
+      <c r="AB16" s="1">
+        <f t="shared" si="8"/>
+        <v>-1.4012451171875</v>
+      </c>
+      <c r="AC16" s="2">
+        <f t="shared" si="27"/>
+        <v>0.99999129140624998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16384</v>
       </c>
       <c r="C17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>11264</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.6875</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G17">
         <v>14</v>
       </c>
       <c r="H17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16384</v>
       </c>
       <c r="I17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8704</v>
       </c>
       <c r="J17" s="1">
@@ -1519,18 +1794,18 @@
         <v>0.53125</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="M17">
         <v>14</v>
       </c>
       <c r="N17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>16384</v>
       </c>
       <c r="O17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2926</v>
       </c>
       <c r="P17" s="1">
@@ -1538,18 +1813,18 @@
         <v>0.1785888671875</v>
       </c>
       <c r="Q17" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1.0000976762519536</v>
       </c>
       <c r="S17">
         <v>14</v>
       </c>
       <c r="T17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>16384</v>
       </c>
       <c r="U17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2926</v>
       </c>
       <c r="V17" s="1">
@@ -1557,20 +1832,39 @@
         <v>0.1785888671875</v>
       </c>
       <c r="W17" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.0000976762519536</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="Y17">
+        <v>14</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="18"/>
+        <v>16384</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="19"/>
+        <v>-22958</v>
+      </c>
+      <c r="AB17" s="1">
+        <f t="shared" si="8"/>
+        <v>-1.4012451171875</v>
+      </c>
+      <c r="AC17" s="2">
+        <f t="shared" si="27"/>
+        <v>0.99999129140624998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>32768</v>
       </c>
       <c r="C18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>22528</v>
       </c>
       <c r="D18" s="1">
@@ -1578,18 +1872,18 @@
         <v>0.6875</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G18">
         <v>15</v>
       </c>
       <c r="H18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32768</v>
       </c>
       <c r="I18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>17408</v>
       </c>
       <c r="J18" s="1">
@@ -1597,18 +1891,18 @@
         <v>0.53125</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="M18" s="4">
         <v>15</v>
       </c>
       <c r="N18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>32768</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5851</v>
       </c>
       <c r="P18" s="1">
@@ -1616,7 +1910,7 @@
         <v>0.178558349609375</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.99992677781103556</v>
       </c>
       <c r="R18" s="2"/>
@@ -1624,11 +1918,11 @@
         <v>15</v>
       </c>
       <c r="T18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>32768</v>
       </c>
       <c r="U18" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5851</v>
       </c>
       <c r="V18" s="1">
@@ -1636,22 +1930,93 @@
         <v>0.178558349609375</v>
       </c>
       <c r="W18" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.99992677781103556</v>
       </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="Y18">
+        <v>15</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="18"/>
+        <v>32768</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="19"/>
+        <v>-45916</v>
+      </c>
+      <c r="AB18" s="1">
+        <f>AA18/Z18</f>
+        <v>-1.4012451171875</v>
+      </c>
+      <c r="AC18" s="2">
+        <f t="shared" si="27"/>
+        <v>0.99999129140624998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="AD19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="Y20">
+        <v>1023</v>
+      </c>
+      <c r="Z20">
+        <v>2500</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC20">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <f>Z20/Y20</f>
+        <v>2.4437927663734116</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC21">
+        <f>-AC20/Z21</f>
+        <v>-860.54759999999999</v>
+      </c>
+      <c r="AD21" s="5">
+        <f>AC21*AD$19</f>
+        <v>-13768.7616</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
+      <c r="AB22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC22">
+        <f>100*Z21/-10.9</f>
+        <v>-22.420117122691849</v>
+      </c>
+      <c r="AD22" s="6">
+        <f>AC22/AD$19</f>
+        <v>-1.4012573201682406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="M25">
         <v>1236</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:30">
       <c r="M26">
         <f>M25*O18</f>
         <v>7231836</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:30">
       <c r="L27">
         <v>1</v>
       </c>
@@ -1660,48 +2025,48 @@
         <v>3615918</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:30">
       <c r="L28">
         <v>2</v>
       </c>
       <c r="M28">
-        <f t="shared" ref="M28:M40" si="24">FLOOR(M27/2,1)</f>
+        <f t="shared" ref="M28:M40" si="29">FLOOR(M27/2,1)</f>
         <v>1807959</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:30">
       <c r="L29">
         <v>3</v>
       </c>
       <c r="M29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>903979</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:30">
       <c r="L30">
         <v>4</v>
       </c>
       <c r="M30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>451989</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:30">
       <c r="L31">
         <v>5</v>
       </c>
       <c r="M31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>225994</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:30">
       <c r="L32">
         <v>6</v>
       </c>
       <c r="M32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>112997</v>
       </c>
     </row>
@@ -1710,7 +2075,7 @@
         <v>7</v>
       </c>
       <c r="M33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>56498</v>
       </c>
     </row>
@@ -1719,7 +2084,7 @@
         <v>8</v>
       </c>
       <c r="M34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>28249</v>
       </c>
     </row>
@@ -1728,7 +2093,7 @@
         <v>9</v>
       </c>
       <c r="M35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>14124</v>
       </c>
     </row>
@@ -1737,7 +2102,7 @@
         <v>10</v>
       </c>
       <c r="M36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>7062</v>
       </c>
     </row>
@@ -1746,7 +2111,7 @@
         <v>11</v>
       </c>
       <c r="M37">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>3531</v>
       </c>
     </row>
@@ -1755,7 +2120,7 @@
         <v>12</v>
       </c>
       <c r="M38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>1765</v>
       </c>
     </row>
@@ -1764,7 +2129,7 @@
         <v>13</v>
       </c>
       <c r="M39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>882</v>
       </c>
     </row>
@@ -1773,7 +2138,7 @@
         <v>14</v>
       </c>
       <c r="M40">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>441</v>
       </c>
     </row>
@@ -1802,7 +2167,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1814,7 +2179,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
